--- a/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="240" windowWidth="27795" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="240" windowWidth="27795" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,16 +492,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.24073811167673</v>
+        <v>2.24073811167671</v>
       </c>
       <c r="B10">
-        <v>-4.57715763663695</v>
+        <v>-4.5771576366369304</v>
       </c>
       <c r="C10">
-        <v>-4.6785630403706602</v>
+        <v>-4.67856303151137</v>
       </c>
       <c r="D10">
-        <v>0.67665138260851498</v>
+        <v>0.67665144386405696</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -515,28 +515,28 @@
       </c>
       <c r="K10">
         <f>H10*H10-4*H11</f>
-        <v>-17.569050697776518</v>
+        <v>-17.569050697776234</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.8627006121276599</v>
+        <v>1.8627006121276699</v>
       </c>
       <c r="B11">
-        <v>6.30699519018237</v>
+        <v>6.3069951901823904</v>
       </c>
       <c r="C11">
-        <v>3.37264862138246</v>
+        <v>3.3726486057113001</v>
       </c>
       <c r="D11">
-        <v>-1.1969301476471399</v>
+        <v>-1.19693019180459</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11">
         <f>A10*B11-A11*B10</f>
-        <v>22.658198824371901</v>
+        <v>22.65819882437183</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>1.07550293898039E-14</v>
+        <v>1.0755029440950899E-14</v>
       </c>
       <c r="C12">
-        <v>6.3266905340232302</v>
+        <v>6.3266905275233496</v>
       </c>
       <c r="D12">
-        <v>2.10789016489188</v>
+        <v>2.1078901768269498</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>-7.8886090522101102E-31</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-2.6043370750090502</v>
+        <v>-2.6043370630739799</v>
       </c>
       <c r="D13">
-        <v>7.2382648213738197</v>
+        <v>7.2382648278737101</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -585,58 +585,58 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.16875417142253299</v>
+        <v>-0.16875417142253701</v>
       </c>
       <c r="B17">
-        <v>0.952645031321247</v>
+        <v>-0.95264503132124601</v>
       </c>
       <c r="C17">
-        <v>-0.19258058042658699</v>
+        <v>0.192580582574055</v>
       </c>
       <c r="D17">
-        <v>-0.16401888296471401</v>
+        <v>0.16401888044329199</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-0.82878306706916904</v>
+        <v>0.82878306706916804</v>
       </c>
       <c r="B18">
-        <v>0.260422163601429</v>
+        <v>-0.260422163601433</v>
       </c>
       <c r="C18">
-        <v>0.48748985159840003</v>
+        <v>-0.48748985274374501</v>
       </c>
       <c r="D18">
-        <v>8.7478963374865396E-2</v>
+        <v>-8.7478956992252097E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.50681118568456596</v>
+        <v>-0.50681118568456596</v>
       </c>
       <c r="B19">
-        <v>0.135011962310535</v>
+        <v>-0.135011962310532</v>
       </c>
       <c r="C19">
-        <v>0.70342677056089098</v>
+        <v>-0.70342677684141597</v>
       </c>
       <c r="D19">
-        <v>0.47969257921750103</v>
+        <v>-0.47969257000766602</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-0.16668257087025901</v>
+        <v>0.16668257087025901</v>
       </c>
       <c r="B20">
-        <v>8.0121851183984405E-2</v>
+        <v>-8.0121851183985293E-2</v>
       </c>
       <c r="C20">
-        <v>-0.48005952036117799</v>
+        <v>0.480059509133831</v>
       </c>
       <c r="D20">
-        <v>0.85751983443039204</v>
+        <v>-0.85751984071572096</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -652,41 +652,41 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="array" ref="A24:D27">MMULT(A17:D20,TRANSPOSE(A17:D20))</f>
-        <v>0.999999999999999</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="B24">
-        <v>-1.3877787807814457E-16</v>
+        <v>6.2450045135165055E-16</v>
       </c>
       <c r="C24">
-        <v>-5.5511151231257827E-17</v>
+        <v>-3.8857805861880479E-16</v>
       </c>
       <c r="D24">
-        <v>1.3877787807814457E-16</v>
+        <v>4.4408920985006262E-16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-1.3877787807814457E-16</v>
+        <v>6.2450045135165055E-16</v>
       </c>
       <c r="B25">
-        <v>0.99999999999999933</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="C25">
-        <v>4.0939474033052647E-16</v>
+        <v>2.3592239273284576E-16</v>
       </c>
       <c r="D25">
-        <v>-5.4123372450476381E-16</v>
+        <v>3.4694469519536142E-16</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-5.5511151231257827E-17</v>
+        <v>-3.8857805861880479E-16</v>
       </c>
       <c r="B26">
-        <v>4.0939474033052647E-16</v>
+        <v>2.3592239273284576E-16</v>
       </c>
       <c r="C26">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="D26">
         <v>1.6653345369377348E-16</v>
@@ -694,16 +694,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.3877787807814457E-16</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="B27">
-        <v>-5.4123372450476381E-16</v>
+        <v>3.4694469519536142E-16</v>
       </c>
       <c r="C27">
         <v>1.6653345369377348E-16</v>
       </c>
       <c r="D27">
-        <v>0.99999999999999867</v>
+        <v>0.99999999999999789</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,54 +717,54 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="array" ref="A30:D33">MMULT(A17:D20,MMULT(A10:D13,TRANSPOSE(A17:D20)))</f>
-        <v>5.4665069389323877</v>
+        <v>5.4665069389323886</v>
       </c>
       <c r="B30">
-        <v>0.14602913571357978</v>
+        <v>0.14602913571359283</v>
       </c>
       <c r="C30">
-        <v>1.689583112391376</v>
+        <v>1.6895831123913747</v>
       </c>
       <c r="D30">
-        <v>-2.9688610466534238</v>
+        <v>-2.9688610466534104</v>
       </c>
       <c r="F30">
         <f>A30-A3</f>
-        <v>-1.6875389974302379E-14</v>
+        <v>-1.5987211554602254E-14</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30:I30" si="0">B30-B3</f>
-        <v>-4.1078251911130792E-15</v>
+        <v>8.9372953482325102E-15</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.6645352591003757E-15</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>6.2172489379008766E-15</v>
+        <v>1.9539925233402755E-14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3.3517501610040616</v>
+        <v>3.3517501610040701</v>
       </c>
       <c r="B31">
-        <v>6.3325570231753421</v>
+        <v>6.3325570231753341</v>
       </c>
       <c r="C31">
-        <v>5.7713251950410305</v>
+        <v>5.7713251950410287</v>
       </c>
       <c r="D31">
-        <v>-2.3141277615050804</v>
+        <v>-2.3141277615050742</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F33" si="1">A31-A4</f>
-        <v>-7.9936057773011271E-15</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31:G33" si="2">B31-B4</f>
-        <v>0</v>
+        <v>-1.1546319456101628E-14</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H33" si="3">C31-C4</f>
@@ -772,67 +772,67 @@
       </c>
       <c r="I31">
         <f t="shared" ref="I31:I33" si="4">D31-D4</f>
-        <v>0</v>
+        <v>5.773159728050814E-15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-2.2545826492028391</v>
+        <v>-2.2545826492028387</v>
       </c>
       <c r="B32">
-        <v>-0.45610736259196094</v>
+        <v>-0.45610736259195273</v>
       </c>
       <c r="C32">
-        <v>3.8726875251172688</v>
+        <v>3.8726875251172705</v>
       </c>
       <c r="D32">
-        <v>3.4385549813766225</v>
+        <v>3.4385549813766199</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>3.5527136788005009E-15</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>6.6613381477509392E-16</v>
+        <v>8.8817841970012523E-15</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>-5.3290705182007514E-15</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>-8.8817841970012523E-15</v>
+        <v>-1.1546319456101628E-14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.1652697618504186</v>
+        <v>1.1652697618504213</v>
       </c>
       <c r="B33">
-        <v>-1.105064424135471</v>
+        <v>-1.1050644241354663</v>
       </c>
       <c r="C33">
-        <v>-0.51924626934742046</v>
+        <v>-0.51924626934741891</v>
       </c>
       <c r="D33">
-        <v>6.4409371700311366</v>
+        <v>6.4409371700311358</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>-4.4408920985006262E-15</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>-3.5527136788005009E-15</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>-2.4424906541753444E-15</v>
+        <v>-8.8817841970012523E-16</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>-1.3322676295501878E-14</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:G26"/>
     </sheetView>
   </sheetViews>
@@ -2415,951 +2415,951 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>-0.6597871126734427</v>
+        <v>-0.17577599358529827</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*10-3</f>
-        <v>-2.2163460506341899</v>
+        <v>6.5546803484661034</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4766412438138135</v>
+        <v>-0.39431313914516108</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6961808973160011</v>
+        <v>6.9526406394651836</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15251520122420548</v>
+        <v>-1.6683458914504774</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1959156118275678</v>
+        <v>2.7287072724552921</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6996453306728903E-2</v>
+        <v>0.12366262680630591</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0013868793232596</v>
+        <v>0.79401216934366037</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2955409387978163</v>
+        <v>-1.5614771993002148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I25" ca="1" si="1">RAND()*10-3</f>
-        <v>0.84814488062254689</v>
+        <v>5.7136868517481503</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1152558687039189</v>
+        <v>-1.2770026297401889</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92115531952797713</v>
+        <v>-0.41028899091951576</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.461049770575475</v>
+        <v>2.2592454939272146</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1319691925019999</v>
+        <v>-1.1670140465438934</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6065535292432216</v>
+        <v>-2.3209739455470153</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2469426946986815</v>
+        <v>4.0285953857250707</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35610688178621519</v>
+        <v>0.18765862621145946</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6059400999543989</v>
+        <v>-0.3432186633436114</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2358597655791197</v>
+        <v>6.2338464834492235</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.879522848261745</v>
+        <v>4.8430702751262702</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7308764838445807</v>
+        <v>0.84425601144564366</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11434238547646647</v>
+        <v>-1.1594094461901245</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0862454235330645E-2</v>
+        <v>1.7790748263464566</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8441351518699198</v>
+        <v>-2.1188256849717417</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1843684876062426</v>
+        <v>-0.92662045628786727</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7678584731071414</v>
+        <v>3.6738475328566151</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7826648859910506</v>
+        <v>5.3637722405242183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0672845520223255</v>
+        <v>-2.5335698789288505</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9960264136507084</v>
+        <v>6.1803490570540482</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7209866963375569</v>
+        <v>5.3897519862482426</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0120566226508183</v>
+        <v>6.7388531602092883</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6715959377423673</v>
+        <v>-1.3666090097202339</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43032983543729797</v>
+        <v>-2.1912678169977005</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3058442373125352</v>
+        <v>-0.37729892298710554</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3438364064242183</v>
+        <v>-1.9172195941489441</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5916016480738504</v>
+        <v>-2.5919734397291654</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8453619465781284</v>
+        <v>4.3022505597508331</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1794815050886633</v>
+        <v>-2.8053942268417602</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3120732067616621</v>
+        <v>-0.4920365760823171</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4667768612122263</v>
+        <v>1.6611811052866017</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48787312572047981</v>
+        <v>1.7844247383258676</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2915983225771828</v>
+        <v>3.8340937049290265</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6899239076759018</v>
+        <v>-0.94527354075180714</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7147309447368801</v>
+        <v>-0.76057921240244397</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4927079996452512</v>
+        <v>5.1662992962204619</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6539981723986914</v>
+        <v>0.84906135389886295</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6443223068122279</v>
+        <v>7.2556205238445859E-2</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62834165476476933</v>
+        <v>1.1196355158162232</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1450462947428388</v>
+        <v>4.874715179578498</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0065519643738341</v>
+        <v>-0.23555149996395697</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4064220904303149</v>
+        <v>3.8887724788725535</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45842397432580917</v>
+        <v>-0.73128773733584662</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1054096126583257</v>
+        <v>5.3967507884122519</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6281333836012255</v>
+        <v>3.3913226236995611</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.508101727118107</v>
+        <v>1.5385747455343921</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9031005505652183</v>
+        <v>0.46794154430762003</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9987557911145792</v>
+        <v>-2.5920983358691672</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3009068817212928</v>
+        <v>-0.41059195644026447</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3829658722695743</v>
+        <v>6.1835348827942926</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1443965555850433</v>
+        <v>1.900641353591098</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.56251847345585926</v>
+        <v>5.8865557670471738</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1665931944161407</v>
+        <v>2.8827061576746438</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.125339106768771</v>
+        <v>-1.601964926308665</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4074395489473543</v>
+        <v>5.1350931983709334</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8978665538879724</v>
+        <v>1.8488034317500812</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0610555833501278</v>
+        <v>4.9476652373718935</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8041914076711265</v>
+        <v>1.120651529043017</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37187030276384325</v>
+        <v>-0.76424715407176969</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2796079749631701</v>
+        <v>6.808403869488977</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2004914558830002</v>
+        <v>2.8264105852846253</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52550219148182631</v>
+        <v>3.9110107129014287</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8162468148351447</v>
+        <v>0.655492310821149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1315275970668499</v>
+        <v>4.4138983217868262</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.27833291083149181</v>
+        <v>0.62582057356783949</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5812303941582435</v>
+        <v>-2.2542879548091661</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1922490078874866</v>
+        <v>6.4205369177987599</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2134725791072674</v>
+        <v>0.83498747688974095</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8474305685748451</v>
+        <v>-2.1113338827508947</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74538835328043707</v>
+        <v>0.33522064376931748</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3172320861601605</v>
+        <v>3.4212904027464388</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6027115974152046</v>
+        <v>-1.245285661809838</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90792966098446026</v>
+        <v>2.8976752279449718</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4163570628018181</v>
+        <v>4.3356940609547951</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0960030040238502</v>
+        <v>5.0186277953620628</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5268215466928488</v>
+        <v>-1.342213412019559</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1075594423214681</v>
+        <v>0.13878034370499215</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5972022749101331</v>
+        <v>6.9006852180386744</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1337223133815462</v>
+        <v>5.0710405865340178</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9328087328698222</v>
+        <v>9.2881980348892945E-2</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0063974736423411</v>
+        <v>-1.4747555616612225</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>4.097863793374759</v>
+        <v>6.5998718635971052</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8914248570013648</v>
+        <v>3.2544706427872541</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8436159243323587</v>
+        <v>-0.67111418991571892</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24921223733135145</v>
+        <v>2.5729547776483921</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6146479324908363</v>
+        <v>-2.4481681140817964</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4309009652180649</v>
+        <v>6.7778907410575542</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5582258373606894</v>
+        <v>1.9471027160905301</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33925783197408954</v>
+        <v>3.491222371300732</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7129519438966083</v>
+        <v>3.0333098234666762</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0392218584297321</v>
+        <v>3.1759121372679573</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70653395067661062</v>
+        <v>-1.73172244668458</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3530090609085379</v>
+        <v>-1.0118852842510024</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7071927039531474E-3</v>
+        <v>4.6382415847484069</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3721191298514555</v>
+        <v>-1.946817545664949</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7645148334672713</v>
+        <v>6.922754907154939</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9848530992336011</v>
+        <v>1.8690888711187874</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.817746552205965</v>
+        <v>-2.0831117711885643</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.82689336113334244</v>
+        <v>-2.6573390625408617</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25147917842740775</v>
+        <v>0.87179533269813714</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9342749987199988</v>
+        <v>3.6413731155787801</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.725230831063433</v>
+        <v>0.81265884055476434</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0878211426408804</v>
+        <v>4.8404285639120355</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8570506229134631</v>
+        <v>4.2869128238452223</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4873151464731018</v>
+        <v>5.8728405617451074</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6698347089592218</v>
+        <v>-0.21614885943896445</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7837313774022707</v>
+        <v>-0.74712978017759957</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4930103815677098</v>
+        <v>5.2122515810881236</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2676254117342673</v>
+        <v>-0.2325136744312335</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2417153885031169</v>
+        <v>-5.7375363530532297E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3808609825475475</v>
+        <v>2.3295018423166383</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0308551861101325</v>
+        <v>-2.7028946326781931</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3037261220937495</v>
+        <v>3.716336306141212</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2066816278458998</v>
+        <v>3.0558960544744442</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4255912768886276</v>
+        <v>5.5801413203118617</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1716874776054951</v>
+        <v>-2.2298683498753107</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16436268158598732</v>
+        <v>6.0027335988088133</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8355484401578619</v>
+        <v>3.0329148076723467</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1496996988129544</v>
+        <v>3.4579703500357972</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.55467894177175747</v>
+        <v>-1.5949830450906517</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0882267120950129</v>
+        <v>5.3979971504169431</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8390797040611204E-2</v>
+        <v>4.4221081951722727</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8241503672914412</v>
+        <v>-2.5223359659625162</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2625768494998448</v>
+        <v>-1.3921739194716971</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5402869084590582</v>
+        <v>-2.5775356148630522</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7363083694167076</v>
+        <v>0.20672514790102836</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5260731495007871</v>
+        <v>6.7044060024661185</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5871012758586422</v>
+        <v>2.1078886094004812</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0978276720794629</v>
+        <v>-1.2840696709203232</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.49682662960309054</v>
+        <v>-1.2014729006161646</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5170167079829926</v>
+        <v>5.8878176113503073</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9110823517396005</v>
+        <v>-2.5085859970477262</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8411053734767133</v>
+        <v>-1.3769746543880186</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1325394743287163</v>
+        <v>4.146701255949699</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5568339858854321</v>
+        <v>2.2649878175316687</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5684670857561267</v>
+        <v>5.367426203343129</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6081146612293908</v>
+        <v>-1.5589113833962394</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3462645011750656</v>
+        <v>2.2723143157601022</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0124369981794494</v>
+        <v>-2.9203997173225842</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9406474527266617</v>
+        <v>6.7184307276663304</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4164340667023048</v>
+        <v>1.3592476155873472</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8894992896365501</v>
+        <v>3.861823321121074</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0488996114823355</v>
+        <v>3.240960626058448</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2022592436977355</v>
+        <v>3.0993729865666264</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3386983449285235</v>
+        <v>5.0157359927608454</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6336451385451047</v>
+        <v>-2.7924386730811506</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90131759335736517</v>
+        <v>2.8600033651370254</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2618047928828062</v>
+        <v>-3.7708539154766463E-2</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1756706641023342</v>
+        <v>-2.7357825247452636</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7628566484160464</v>
+        <v>-0.88528222376959853</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5672031397493846</v>
+        <v>0.42401050228585113</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.639149212737447</v>
+        <v>3.8339293907431635</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1388519890765227</v>
+        <v>1.4738160734946897</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0407063233419489</v>
+        <v>-0.23320381027406167</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4765372176217877</v>
+        <v>-2.1326386612109731</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.6985870659464184</v>
+        <v>4.9151585919568603</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5041863161272131</v>
+        <v>-2.69745209628325</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2911721230912772</v>
+        <v>-2.3000769938174157</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8753936834549085</v>
+        <v>-1.2683524330762947</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.538562888256525</v>
+        <v>5.3345815464299235</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.784307547045727</v>
+        <v>-1.6021868910122068</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47054693275056358</v>
+        <v>3.9207218758709912</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9038162382829489</v>
+        <v>-0.56124689105340053</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1945979383321186</v>
+        <v>-1.7419791193497787</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36881157293563938</v>
+        <v>4.6063373775385932</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1034117267723609</v>
+        <v>5.2585810007536278</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40066515893703158</v>
+        <v>0.25635214129918715</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7351975788411647</v>
+        <v>6.4371168092886517</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4177610753870828</v>
+        <v>5.7852291090118833</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.611982722484556</v>
+        <v>-1.0513437631520512</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1316486500484277</v>
+        <v>2.9132258045655819</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2835933497594922</v>
+        <v>3.9100390021251732</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75500464580168503</v>
+        <v>0.12040038452202939</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17315634979840411</v>
+        <v>5.922465267415765</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.255692202510474</v>
+        <v>-1.5176623037797028</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4173874513977758</v>
+        <v>5.5773910714873409</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8926115238052912</v>
+        <v>-1.6288501587901467</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9011754647132113</v>
+        <v>-2.0356095986426901</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5095688192842962</v>
+        <v>1.7418304542040044</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7558327597697243</v>
+        <v>3.5171717945582035</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2901587257003708</v>
+        <v>5.2125047195434497</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6366974554553959</v>
+        <v>3.45590805811604</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8983824003472485</v>
+        <v>-1.4720414565359459</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4547135016121562</v>
+        <v>-2.4504372784081605</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5195849290631092</v>
+        <v>0.11431557034209217</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81824567703997753</v>
+        <v>-2.3934232794385455</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2808625954929784</v>
+        <v>-2.7786830329622756</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67938861681859075</v>
+        <v>5.5159646558710573</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90457338436169721</v>
+        <v>3.1503203997398881</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4698955911575586</v>
+        <v>1.1084626502019441</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0363563546802839</v>
+        <v>-0.5109838896420289</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4217686623054124</v>
+        <v>-2.3065974552569202E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6302626458543745</v>
+        <v>1.562785116472865</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5085744086834403</v>
+        <v>-1.4739348040933049</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6803315190971704</v>
+        <v>3.5305654740888377</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.690902357164624</v>
+        <v>2.6432548354606205</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6987249527639232</v>
+        <v>4.2074325816823706</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8887567338400011</v>
+        <v>2.4501098427228589</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20270737670373284</v>
+        <v>3.6183203273445361</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4857580661011132</v>
+        <v>1.3565366940673353</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8753899939658498</v>
+        <v>0.86368481963126564</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1893459660048977</v>
+        <v>6.1339580167190899</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6644893963989222E-2</v>
+        <v>0.68376513952094786</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1056599323392735</v>
+        <v>2.9153002528139655</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2208234629133381</v>
+        <v>-2.0711716828007849</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9108946962638305</v>
+        <v>4.0949113937573669</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7270125428480112</v>
+        <v>5.0197498648844654</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1842709040500567</v>
+        <v>6.686219687574452</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0956985995483404</v>
+        <v>5.9370464774408021</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.89558605744343023</v>
+        <v>3.7925981605191783E-2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7386086995218282</v>
+        <v>-0.92592035405684481</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0154277985378108</v>
+        <v>3.3814642918611231</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2537023013183064</v>
+        <v>3.9500398234611609</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.737412542515739</v>
+        <v>0.27943607123166636</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9376899323230123</v>
+        <v>1.3970196249635105</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54114961491845204</v>
+        <v>0.36743574086951014</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="240" windowWidth="27795" windowHeight="12555"/>
+    <workbookView xWindow="630" yWindow="240" windowWidth="27795" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:G26"/>
     </sheetView>
   </sheetViews>
@@ -1724,36 +1724,36 @@
         <v>2.15837841553562</v>
       </c>
       <c r="C12">
-        <v>2.4994312384266402</v>
+        <v>3.41875559241524</v>
       </c>
       <c r="D12">
-        <v>2.8949091245095899</v>
+        <v>1.7145744527786799</v>
       </c>
       <c r="E12">
-        <v>-2.4658913963588498</v>
+        <v>2.4658913963588498</v>
       </c>
       <c r="F12">
-        <v>2.30310689302723</v>
+        <v>-2.30310689302723</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>-3.3881317890171999E-21</v>
+        <v>2.2204460492503101E-16</v>
       </c>
       <c r="B13">
-        <v>-3.5246750668673901</v>
+        <v>-3.5246750668673998</v>
       </c>
       <c r="C13">
-        <v>0.98536210607367503</v>
+        <v>1.48601841867257</v>
       </c>
       <c r="D13">
-        <v>1.5015914625861899</v>
+        <v>1.0086945325337899</v>
       </c>
       <c r="E13">
-        <v>-1.19935032053413</v>
+        <v>1.19935032053413</v>
       </c>
       <c r="F13">
-        <v>-1.1826455060835701</v>
+        <v>1.1826455060835701</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>4.0475337252007898E-16</v>
       </c>
       <c r="C14">
-        <v>5.2661696141711101</v>
+        <v>5.7868602337626696</v>
       </c>
       <c r="D14">
-        <v>-3.7972503724556899</v>
+        <v>-5.4883387929581602</v>
       </c>
       <c r="E14">
-        <v>3.93539291702906</v>
+        <v>-3.2227293315746701</v>
       </c>
       <c r="F14">
-        <v>2.04068996787433</v>
+        <v>-2.5728347849639501</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="L14">
         <f>I14*I14-4*I15</f>
-        <v>-89.796882514124974</v>
+        <v>-89.796882514125258</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1798,23 +1798,23 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.74178392893816</v>
+        <v>5.0506955084356999</v>
       </c>
       <c r="D15">
-        <v>1.7159465751804801</v>
+        <v>1.1952559555889199</v>
       </c>
       <c r="E15">
-        <v>-1.07282932417588</v>
+        <v>2.5004591229657098</v>
       </c>
       <c r="F15">
-        <v>1.7941496956904399</v>
+        <v>-0.87401936180418505</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15">
         <f>C14*D15-C15*D14</f>
-        <v>34.636707248932638</v>
+        <v>34.636707248932709</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1875,16 +1875,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.35944735686947099</v>
+        <v>-0.35944735686947099</v>
       </c>
       <c r="B21">
-        <v>0.117877279364902</v>
+        <v>-0.117877279364902</v>
       </c>
       <c r="C21">
-        <v>0.70130178162652801</v>
+        <v>-0.462602513140637</v>
       </c>
       <c r="D21">
-        <v>-0.48235226613177201</v>
+        <v>0.71448359840584497</v>
       </c>
       <c r="E21">
         <v>0.32452644023947402</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.65152385840086202</v>
+        <v>-0.65152385840086202</v>
       </c>
       <c r="B22">
-        <v>-0.50946867617629599</v>
+        <v>0.50946867617629599</v>
       </c>
       <c r="C22">
-        <v>-0.34640799495555002</v>
+        <v>0.41586352250780001</v>
       </c>
       <c r="D22">
-        <v>-0.25013913335695898</v>
+        <v>9.8110221960301294E-2</v>
       </c>
       <c r="E22" s="1">
         <v>2.5042327784664802E-2</v>
@@ -1915,16 +1915,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.34245434522044299</v>
+        <v>-0.34245434522044299</v>
       </c>
       <c r="B23">
-        <v>0.33066342822558897</v>
+        <v>-0.33066342822558897</v>
       </c>
       <c r="C23">
-        <v>-0.36383310185433299</v>
+        <v>0.43223446286684702</v>
       </c>
       <c r="D23">
-        <v>-0.25086651748929301</v>
+        <v>9.2097256812348302E-2</v>
       </c>
       <c r="E23">
         <v>-0.41061843406042098</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.454762448883543</v>
+        <v>-0.454762448883543</v>
       </c>
       <c r="B24">
-        <v>0.29634744696495002</v>
+        <v>-0.29634744696495002</v>
       </c>
       <c r="C24">
-        <v>-0.122829378903338</v>
+        <v>-0.128039902477353</v>
       </c>
       <c r="D24">
-        <v>0.62944769525724897</v>
+        <v>-0.62840849831939205</v>
       </c>
       <c r="E24">
         <v>0.52888991836179</v>
@@ -1955,16 +1955,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.31517651048891099</v>
+        <v>-0.31517651048891099</v>
       </c>
       <c r="B25">
-        <v>0.41781275636058601</v>
+        <v>-0.41781275636058701</v>
       </c>
       <c r="C25">
-        <v>0.30392045608733598</v>
+        <v>-0.36423201662509602</v>
       </c>
       <c r="D25">
-        <v>0.217829608976774</v>
+        <v>-8.4571982597811998E-2</v>
       </c>
       <c r="E25">
         <v>-0.58073367275272203</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.15130817339164501</v>
+        <v>-0.15130817339164501</v>
       </c>
       <c r="B26">
-        <v>-0.59566685616922199</v>
+        <v>0.59566685616922199</v>
       </c>
       <c r="C26">
-        <v>0.38515981898852403</v>
+        <v>-0.526469976382684</v>
       </c>
       <c r="D26">
-        <v>0.44517250152286902</v>
+        <v>-0.26335528520046297</v>
       </c>
       <c r="E26">
         <v>-0.32935061651799002</v>
@@ -2006,59 +2006,59 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="array" ref="A30:F35">MMULT(A21:F26,TRANSPOSE(A21:F26))</f>
-        <v>0.99999999999999833</v>
+        <v>0.99999999999999811</v>
       </c>
       <c r="B30">
-        <v>1.3877787807814457E-17</v>
+        <v>-1.3877787807814457E-17</v>
       </c>
       <c r="C30">
-        <v>-3.4694469519536142E-16</v>
+        <v>1.9428902930940239E-16</v>
       </c>
       <c r="D30">
-        <v>8.6736173798840355E-17</v>
+        <v>-1.0234868508263162E-15</v>
       </c>
       <c r="E30">
-        <v>4.163336342344337E-16</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="F30">
-        <v>1.3877787807814457E-17</v>
+        <v>-2.9143354396410359E-16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.3877787807814457E-17</v>
+        <v>-1.3877787807814457E-17</v>
       </c>
       <c r="B31">
-        <v>0.99999999999999689</v>
+        <v>0.99999999999999711</v>
       </c>
       <c r="C31">
-        <v>5.8286708792820718E-16</v>
+        <v>7.7715611723760958E-16</v>
       </c>
       <c r="D31">
-        <v>-1.0408340855860843E-16</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="E31">
-        <v>-1.1102230246251565E-16</v>
+        <v>-8.3266726846886741E-16</v>
       </c>
       <c r="F31">
-        <v>-8.0491169285323849E-16</v>
+        <v>-7.7715611723760958E-16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-3.4694469519536142E-16</v>
+        <v>1.9428902930940239E-16</v>
       </c>
       <c r="B32">
-        <v>5.8286708792820718E-16</v>
+        <v>7.7715611723760958E-16</v>
       </c>
       <c r="C32">
-        <v>0.99999999999999845</v>
+        <v>0.99999999999999867</v>
       </c>
       <c r="D32">
-        <v>-1.9428902930940239E-16</v>
+        <v>-3.6082248300317588E-16</v>
       </c>
       <c r="E32">
-        <v>1.6653345369377348E-16</v>
+        <v>2.7755575615628914E-16</v>
       </c>
       <c r="F32">
         <v>1.6653345369377348E-16</v>
@@ -2066,62 +2066,62 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8.6736173798840355E-17</v>
+        <v>-1.0234868508263162E-15</v>
       </c>
       <c r="B33">
-        <v>-1.0408340855860843E-16</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="C33">
-        <v>-1.9428902930940239E-16</v>
+        <v>-3.6082248300317588E-16</v>
       </c>
       <c r="D33">
-        <v>0.99999999999999689</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="E33">
-        <v>-2.2898349882893854E-16</v>
+        <v>2.7061686225238191E-16</v>
       </c>
       <c r="F33">
-        <v>-9.7144514654701197E-17</v>
+        <v>-3.1918911957973251E-16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4.163336342344337E-16</v>
+        <v>8.3266726846886741E-17</v>
       </c>
       <c r="B34">
-        <v>-1.1102230246251565E-16</v>
+        <v>-8.3266726846886741E-16</v>
       </c>
       <c r="C34">
-        <v>1.6653345369377348E-16</v>
+        <v>2.7755575615628914E-16</v>
       </c>
       <c r="D34">
-        <v>-2.2898349882893854E-16</v>
+        <v>2.7061686225238191E-16</v>
       </c>
       <c r="E34">
-        <v>0.99999999999999811</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="F34">
-        <v>5.5511151231257827E-16</v>
+        <v>1.3877787807814457E-16</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1.3877787807814457E-17</v>
+        <v>-2.9143354396410359E-16</v>
       </c>
       <c r="B35">
-        <v>-8.0491169285323849E-16</v>
+        <v>-7.7715611723760958E-16</v>
       </c>
       <c r="C35">
         <v>1.6653345369377348E-16</v>
       </c>
       <c r="D35">
-        <v>-9.7144514654701197E-17</v>
+        <v>-3.1918911957973251E-16</v>
       </c>
       <c r="E35">
-        <v>5.5511151231257827E-16</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="F35">
-        <v>0.99999999999999811</v>
+        <v>0.99999999999999778</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2135,70 +2135,70 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="array" ref="A38:F43">MMULT(A21:F26,MMULT(A12:F17,TRANSPOSE(A21:F26)))</f>
-        <v>6.3587863372762863</v>
+        <v>6.3587863372762445</v>
       </c>
       <c r="B38">
-        <v>2.8865931195673258</v>
+        <v>2.8865931195673156</v>
       </c>
       <c r="C38">
-        <v>3.0077641014102916</v>
+        <v>3.0077641014102863</v>
       </c>
       <c r="D38">
-        <v>3.9666192782143592</v>
+        <v>3.9666192782143956</v>
       </c>
       <c r="E38">
-        <v>-1.9614696617931155</v>
+        <v>-1.96146966179311</v>
       </c>
       <c r="F38">
-        <v>0.45178170600374512</v>
+        <v>0.45178170600376732</v>
       </c>
       <c r="H38">
         <f>A38-A3</f>
-        <v>1.3322676295501878E-14</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="I38">
         <f t="shared" ref="I38:M38" si="0">B38-B3</f>
-        <v>-2.1760371282653068E-14</v>
+        <v>-3.1974423109204508E-14</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>-1.9539925233402755E-14</v>
+        <v>-2.4868995751603507E-14</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>-4.929390229335695E-14</v>
+        <v>-1.2878587085651816E-14</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>2.2204460492503131E-15</v>
+        <v>7.7715611723760958E-15</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>-1.2101430968414206E-14</v>
+        <v>1.0103029524088925E-14</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1.4362549376684555</v>
+        <v>1.4362549376684479</v>
       </c>
       <c r="B39">
         <v>5.9702643385649594</v>
       </c>
       <c r="C39">
-        <v>6.7403948533882856</v>
+        <v>6.740394853388282</v>
       </c>
       <c r="D39">
-        <v>6.8831405010218489</v>
+        <v>6.883140501021856</v>
       </c>
       <c r="E39">
-        <v>5.4732920165347005</v>
+        <v>5.4732920165347112</v>
       </c>
       <c r="F39">
-        <v>0.80767795839983891</v>
+        <v>0.80767795839983636</v>
       </c>
       <c r="H39">
         <f t="shared" ref="H39:H43" si="1">A39-A4</f>
-        <v>-1.8873791418627661E-14</v>
+        <v>-2.6423307986078726E-14</v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:I43" si="2">B39-B4</f>
@@ -2206,195 +2206,195 @@
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J43" si="3">C39-C4</f>
-        <v>-3.2862601528904634E-14</v>
+        <v>-3.6415315207705135E-14</v>
       </c>
       <c r="K39">
         <f t="shared" ref="K39:K43" si="4">D39-D4</f>
-        <v>-4.0856207306205761E-14</v>
+        <v>-3.3750779948604759E-14</v>
       </c>
       <c r="L39">
         <f t="shared" ref="L39:L43" si="5">E39-E4</f>
-        <v>-4.1744385725905886E-14</v>
+        <v>-3.1086244689504383E-14</v>
       </c>
       <c r="M39">
         <f t="shared" ref="M39:M43" si="6">F39-F4</f>
-        <v>-1.2101430968414206E-14</v>
+        <v>-1.4654943925052066E-14</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-2.702689398832673</v>
+        <v>-2.7026893988326255</v>
       </c>
       <c r="B40">
-        <v>5.4196764667255151</v>
+        <v>5.4196764667255364</v>
       </c>
       <c r="C40">
-        <v>2.2216232509819736</v>
+        <v>2.2216232509819829</v>
       </c>
       <c r="D40">
-        <v>1.7098645705383375</v>
+        <v>1.7098645705382864</v>
       </c>
       <c r="E40">
-        <v>5.7111755417134793</v>
+        <v>5.7111755417134678</v>
       </c>
       <c r="F40">
-        <v>1.6353428958420582</v>
+        <v>1.6353428958420257</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-4.1744385725905886E-14</v>
+        <v>5.773159728050814E-15</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>-3.2862601528904634E-14</v>
+        <v>-1.1546319456101628E-14</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.1054273576010019E-15</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>2.4424906541753444E-14</v>
+        <v>-2.6645352591003757E-14</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>-2.3980817331903381E-14</v>
+        <v>-3.5527136788005009E-14</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
-        <v>-1.1324274851176597E-14</v>
+        <v>-4.3742787170231168E-14</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5.7756610502336239</v>
+        <v>5.7756610502335448</v>
       </c>
       <c r="B41">
-        <v>0.89028619908788353</v>
+        <v>0.89028619908786288</v>
       </c>
       <c r="C41">
-        <v>3.3625834540434245</v>
+        <v>3.362583454043405</v>
       </c>
       <c r="D41">
-        <v>5.8861340484022895</v>
+        <v>5.8861340484023597</v>
       </c>
       <c r="E41">
-        <v>2.0820196365168155</v>
+        <v>2.0820196365168373</v>
       </c>
       <c r="F41">
-        <v>6.7426007932593945</v>
+        <v>6.742600793259439</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>5.773159728050814E-14</v>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>-2.3203661214665772E-14</v>
+        <v>-4.3853809472693683E-14</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>-2.2648549702353193E-14</v>
+        <v>-4.2188474935755949E-14</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>-7.5495165674510645E-14</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>-2.0872192862952943E-14</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
-        <v>-3.6415315207705135E-14</v>
+        <v>7.9936057773011271E-15</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2.9507031693095751</v>
+        <v>2.9507031693096493</v>
       </c>
       <c r="B42">
-        <v>3.4484554498803135</v>
+        <v>3.4484554498803366</v>
       </c>
       <c r="C42">
-        <v>-0.61775192973782733</v>
+        <v>-0.61775192973780602</v>
       </c>
       <c r="D42">
-        <v>0.11134606971467252</v>
+        <v>0.11134606971458637</v>
       </c>
       <c r="E42">
-        <v>6.4314471437986116</v>
+        <v>6.4314471437985894</v>
       </c>
       <c r="F42">
-        <v>3.1883504143734953</v>
+        <v>3.188350414373458</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-8.0824236192711396E-14</v>
+        <v>-6.6613381477509392E-15</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>-2.5757174171303632E-14</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>4.4408920985006262E-15</v>
+        <v>2.5757174171303632E-14</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>4.8058779178461464E-14</v>
+        <v>-3.8094527532450684E-14</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>-2.042810365310288E-14</v>
+        <v>-4.2632564145606011E-14</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
-        <v>-2.9309887850104133E-14</v>
+        <v>-6.6613381477509392E-14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5.2063174671922798</v>
+        <v>5.2063174671923225</v>
       </c>
       <c r="B43">
-        <v>-1.1488250748462197</v>
+        <v>-1.1488250748462114</v>
       </c>
       <c r="C43">
-        <v>0.93762267251790443</v>
+        <v>0.93762267251792586</v>
       </c>
       <c r="D43">
-        <v>0.52626755664404401</v>
+        <v>0.52626755664399227</v>
       </c>
       <c r="E43">
-        <v>2.9082569095328599</v>
+        <v>2.9082569095328488</v>
       </c>
       <c r="F43">
-        <v>0.76214904677770767</v>
+        <v>0.76214904677767681</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-6.9277916736609768E-14</v>
+        <v>-2.6645352591003757E-14</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5479180117763462E-15</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>-1.7541523789077473E-14</v>
+        <v>3.8857805861880479E-15</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>2.2648549702353193E-14</v>
+        <v>-2.9087843245179101E-14</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>-7.5495165674510645E-15</v>
+        <v>-1.865174681370263E-14</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
-        <v>-5.5511151231257827E-15</v>
+        <v>-3.6415315207705135E-14</v>
       </c>
     </row>
   </sheetData>
@@ -2415,951 +2415,951 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>-0.17577599358529827</v>
+        <v>0.37968907445327904</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*10-3</f>
-        <v>6.5546803484661034</v>
+        <v>-1.507035867369408</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39431313914516108</v>
+        <v>1.9628882012436577</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9526406394651836</v>
+        <v>0.3074243568075179</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6683458914504774</v>
+        <v>5.1092495827520246</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7287072724552921</v>
+        <v>3.4606417560407099</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12366262680630591</v>
+        <v>3.9025260829859452</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79401216934366037</v>
+        <v>4.4610582949272377</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5614771993002148</v>
+        <v>3.8144795488257213</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I25" ca="1" si="1">RAND()*10-3</f>
-        <v>5.7136868517481503</v>
+        <v>5.561653492571935</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2770026297401889</v>
+        <v>1.1953915641790207</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41028899091951576</v>
+        <v>-2.354567407976988</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2592454939272146</v>
+        <v>5.919303889707356</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1670140465438934</v>
+        <v>0.10184015066937935</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3209739455470153</v>
+        <v>0.22199994454477334</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0285953857250707</v>
+        <v>1.4188508287596386</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18765862621145946</v>
+        <v>2.4647613578201879</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3432186633436114</v>
+        <v>1.2719706610380044</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2338464834492235</v>
+        <v>-2.3198483637030769</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8430702751262702</v>
+        <v>3.0420279210755892</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84425601144564366</v>
+        <v>4.6861237110811933</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1594094461901245</v>
+        <v>4.1538806575749998</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7790748263464566</v>
+        <v>2.4973583063232025</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1188256849717417</v>
+        <v>5.8523654916239991</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92662045628786727</v>
+        <v>0.33402712283790503</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6738475328566151</v>
+        <v>3.1357419674005707</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3637722405242183</v>
+        <v>2.4414106774456883</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5335698789288505</v>
+        <v>-1.8918890436604214</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1803490570540482</v>
+        <v>6.6924447636162743</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3897519862482426</v>
+        <v>-2.4609108751333459</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7388531602092883</v>
+        <v>6.8997977890578746</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3666090097202339</v>
+        <v>6.4430299771598865</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1912678169977005</v>
+        <v>-1.5116936975626101</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37729892298710554</v>
+        <v>5.5566244429012457</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9172195941489441</v>
+        <v>0.95578676813642893</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5919734397291654</v>
+        <v>1.567671567943389</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3022505597508331</v>
+        <v>1.9362412899397148</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8053942268417602</v>
+        <v>1.5839283807699029</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.4920365760823171</v>
+        <v>-2.7952882734091737</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6611811052866017</v>
+        <v>5.8399179415454636</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7844247383258676</v>
+        <v>5.5448831802873091</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8340937049290265</v>
+        <v>1.6967838877727432</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94527354075180714</v>
+        <v>1.4728178546710122</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76057921240244397</v>
+        <v>4.6423593536632515</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1662992962204619</v>
+        <v>-2.6517893638151819</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84906135389886295</v>
+        <v>1.4630212209724647</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2556205238445859E-2</v>
+        <v>-1.805038181198287</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1196355158162232</v>
+        <v>-0.42934884893318825</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.874715179578498</v>
+        <v>5.6211596669506658</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23555149996395697</v>
+        <v>-2.0411720468236725</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8887724788725535</v>
+        <v>-1.3734196584502252</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73128773733584662</v>
+        <v>3.2716821534587783</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3967507884122519</v>
+        <v>6.6526035337445926</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3913226236995611</v>
+        <v>3.7164152793382588</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5385747455343921</v>
+        <v>1.9257694179154825</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46794154430762003</v>
+        <v>-1.2433771804743372</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5920983358691672</v>
+        <v>4.0177149338184597</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41059195644026447</v>
+        <v>5.6264765407770412</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1835348827942926</v>
+        <v>-2.4219525975402538</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.900641353591098</v>
+        <v>6.0561371389019367</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8865557670471738</v>
+        <v>2.0754143729389236</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8827061576746438</v>
+        <v>0.81380993267972457</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.601964926308665</v>
+        <v>5.0406787192066318</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1350931983709334</v>
+        <v>-2.3732320073258468</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8488034317500812</v>
+        <v>6.6487978359664144</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9476652373718935</v>
+        <v>-0.28719391927214488</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.120651529043017</v>
+        <v>-0.16708344210883919</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.76424715407176969</v>
+        <v>1.7440914177961568</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.808403869488977</v>
+        <v>5.7370945287337758</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8264105852846253</v>
+        <v>-2.4243037377658356</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9110107129014287</v>
+        <v>0.49037842284220279</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.655492310821149</v>
+        <v>0.17591737232929461</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4138983217868262</v>
+        <v>4.6503675184217741</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62582057356783949</v>
+        <v>5.9690565486656055</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2542879548091661</v>
+        <v>6.1155238994331267</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4205369177987599</v>
+        <v>-1.4164981236766334</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83498747688974095</v>
+        <v>6.9884000928634329</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1113338827508947</v>
+        <v>-1.4403435760810852</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33522064376931748</v>
+        <v>0.34427260948042004</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4212904027464388</v>
+        <v>0.67356969210981621</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.245285661809838</v>
+        <v>-0.80319936453243024</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8976752279449718</v>
+        <v>1.2115646086394785</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3356940609547951</v>
+        <v>6.1234552225408354</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0186277953620628</v>
+        <v>1.51123352938483</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.342213412019559</v>
+        <v>3.8702634862027576</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13878034370499215</v>
+        <v>1.1029775545262819</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9006852180386744</v>
+        <v>-2.6235152571428584</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0710405865340178</v>
+        <v>0.97246960641875724</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2881980348892945E-2</v>
+        <v>5.6857890961626367</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4747555616612225</v>
+        <v>-2.6026957534737289</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5998718635971052</v>
+        <v>-1.2355642968216658</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2544706427872541</v>
+        <v>-0.97083814269827773</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67111418991571892</v>
+        <v>-2.0298494303455392</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5729547776483921</v>
+        <v>1.8235463480752729</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4481681140817964</v>
+        <v>-2.4918193725428535</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7778907410575542</v>
+        <v>4.2313471096728943</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9471027160905301</v>
+        <v>-1.7747428091051349</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.491222371300732</v>
+        <v>0.81974060761799628</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0333098234666762</v>
+        <v>-1.8072069217204563</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1759121372679573</v>
+        <v>3.6064868470177798</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.73172244668458</v>
+        <v>1.8328046127479718</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0118852842510024</v>
+        <v>1.7127006705357903</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6382415847484069</v>
+        <v>1.174314299914017</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.946817545664949</v>
+        <v>6.689063896062347</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.922754907154939</v>
+        <v>-0.37263066438621051</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8690888711187874</v>
+        <v>0.34841800177775006</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0831117711885643</v>
+        <v>4.4647594202220811</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6573390625408617</v>
+        <v>1.7439519345169394</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87179533269813714</v>
+        <v>-2.0342027804315874</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6413731155787801</v>
+        <v>2.2580808524998988</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81265884055476434</v>
+        <v>-0.69082362105842332</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8404285639120355</v>
+        <v>1.3302588558337494</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2869128238452223</v>
+        <v>-2.4171694532358794</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8728405617451074</v>
+        <v>3.1224561138959359</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21614885943896445</v>
+        <v>3.7088037208947</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.74712978017759957</v>
+        <v>0.7595098745118003</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2122515810881236</v>
+        <v>5.8126867688918598</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2325136744312335</v>
+        <v>-2.8699322925551849</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7375363530532297E-2</v>
+        <v>-1.5328513209950219</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3295018423166383</v>
+        <v>-0.62501641323253709</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7028946326781931</v>
+        <v>1.1596753078117583</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.716336306141212</v>
+        <v>-1.779086945115423</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0558960544744442</v>
+        <v>2.1373473295174357</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5801413203118617</v>
+        <v>3.5936795616194521</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2298683498753107</v>
+        <v>5.2299636123896249</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0027335988088133</v>
+        <v>-1.0023492464595625</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0329148076723467</v>
+        <v>-2.3270722320557722</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4579703500357972</v>
+        <v>2.567446630961709</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5949830450906517</v>
+        <v>0.65779486209977112</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3979971504169431</v>
+        <v>6.710926506465249</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4221081951722727</v>
+        <v>1.3094946031718395</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5223359659625162</v>
+        <v>0.40351248355130842</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3921739194716971</v>
+        <v>1.0336213451082621</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5775356148630522</v>
+        <v>6.8413632888873845</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20672514790102836</v>
+        <v>2.6203576151199064</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7044060024661185</v>
+        <v>0.6276235885660757</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1078886094004812</v>
+        <v>6.4203283735684895</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2840696709203232</v>
+        <v>1.4804766309528423</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2014729006161646</v>
+        <v>5.5619766381986544</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8878176113503073</v>
+        <v>-1.3023825015926989</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5085859970477262</v>
+        <v>-0.91474886173316516</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3769746543880186</v>
+        <v>4.9265942480737053</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.146701255949699</v>
+        <v>6.8506655623973831</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2649878175316687</v>
+        <v>-1.3719223699905065</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.367426203343129</v>
+        <v>-0.57523919849378302</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5589113833962394</v>
+        <v>0.39252671965305064</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2723143157601022</v>
+        <v>4.2032429417591235</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9203997173225842</v>
+        <v>3.9029285988516742</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7184307276663304</v>
+        <v>-0.74835831032480193</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3592476155873472</v>
+        <v>4.1555163749910768</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.861823321121074</v>
+        <v>4.9897378059615658</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.240960626058448</v>
+        <v>3.0920090255354431</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0993729865666264</v>
+        <v>0.91195525800025257</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0157359927608454</v>
+        <v>-2.4353992111691163</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7924386730811506</v>
+        <v>6.5660517092165751</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8600033651370254</v>
+        <v>-0.82389985539929533</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7708539154766463E-2</v>
+        <v>-2.3139403705950707</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7357825247452636</v>
+        <v>-2.5912405275175132E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88528222376959853</v>
+        <v>3.7252678457545283</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42401050228585113</v>
+        <v>2.5698591358417771</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8339293907431635</v>
+        <v>-1.3868579924253195</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4738160734946897</v>
+        <v>6.0577898350911319E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23320381027406167</v>
+        <v>2.6025700540611698</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1326386612109731</v>
+        <v>-0.63929601215109866</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9151585919568603</v>
+        <v>6.4087435184851227</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.69745209628325</v>
+        <v>6.1415325358183921</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3000769938174157</v>
+        <v>3.1986823793985781</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2683524330762947</v>
+        <v>3.6712135393903829</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3345815464299235</v>
+        <v>-1.6076028198202559</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6021868910122068</v>
+        <v>6.6795952709563888</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9207218758709912</v>
+        <v>5.1907921536688928</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.56124689105340053</v>
+        <v>6.132057856660964</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7419791193497787</v>
+        <v>0.14498805495004419</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6063373775385932</v>
+        <v>0.41150386979968001</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2585810007536278</v>
+        <v>2.6573605272125711E-2</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25635214129918715</v>
+        <v>6.1342542635729362</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4371168092886517</v>
+        <v>6.6951637477753643</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7852291090118833</v>
+        <v>3.7505009726531009</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0513437631520512</v>
+        <v>-2.6076575536938238</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9132258045655819</v>
+        <v>-1.2201002361836406</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9100390021251732</v>
+        <v>2.9422514416714387</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12040038452202939</v>
+        <v>3.0701393055325372</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.922465267415765</v>
+        <v>0.53595825022296228</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5176623037797028</v>
+        <v>3.4618525003683711</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5773910714873409</v>
+        <v>6.3364777878994669</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6288501587901467</v>
+        <v>2.7836427748554389</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0356095986426901</v>
+        <v>-2.2435401741406533</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7418304542040044</v>
+        <v>5.9061856757696098</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5171717945582035</v>
+        <v>6.528310382320031</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2125047195434497</v>
+        <v>6.4368624885983508</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.45590805811604</v>
+        <v>-0.21035351634167743</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4720414565359459</v>
+        <v>-2.0348220052812991</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4504372784081605</v>
+        <v>-0.5468879010421519</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11431557034209217</v>
+        <v>-0.2455029332938512</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3934232794385455</v>
+        <v>0.77511994353075675</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7786830329622756</v>
+        <v>6.2918585816653767</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5159646558710573</v>
+        <v>-2.8019894668670027</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1503203997398881</v>
+        <v>-2.8697967395251518</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1084626502019441</v>
+        <v>5.4963741913752102</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5109838896420289</v>
+        <v>-0.55045394012937798</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3065974552569202E-2</v>
+        <v>1.8434552035150293</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.562785116472865</v>
+        <v>4.8973161726595471</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4739348040933049</v>
+        <v>5.8619452203990381</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5305654740888377</v>
+        <v>-1.1081713497223473</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6432548354606205</v>
+        <v>3.8814243459357662</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2074325816823706</v>
+        <v>1.0765889330756613</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4501098427228589</v>
+        <v>2.3687147764031264</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6183203273445361</v>
+        <v>1.7337903705021924</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3565366940673353</v>
+        <v>0.26240170858485534</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86368481963126564</v>
+        <v>5.0782436665701738</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1339580167190899</v>
+        <v>-1.2544635412274192</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68376513952094786</v>
+        <v>1.8696679661175075</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9153002528139655</v>
+        <v>-0.88241871203101407</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0711716828007849</v>
+        <v>-1.9562769144656462</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0949113937573669</v>
+        <v>-0.32967768162158029</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0197498648844654</v>
+        <v>-1.7897331835900494</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.686219687574452</v>
+        <v>1.9776020682442725</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9370464774408021</v>
+        <v>0.98797618192179382</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7925981605191783E-2</v>
+        <v>0.99014581663980294</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92592035405684481</v>
+        <v>5.9403735425599766</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3814642918611231</v>
+        <v>2.7809379270687007</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9500398234611609</v>
+        <v>-2.2012577385366932</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27943607123166636</v>
+        <v>1.9264209643029293</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3970196249635105</v>
+        <v>6.3435327798448693</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36743574086951014</v>
+        <v>6.216032585629609</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/SchurDecompTest.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="240" windowWidth="27795" windowHeight="12555" activeTab="3"/>
+    <workbookView xWindow="555" yWindow="615" windowWidth="27795" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
     <sheet name="4x4(2)" sheetId="5" r:id="rId2"/>
     <sheet name="5x5" sheetId="2" r:id="rId3"/>
     <sheet name="6x6" sheetId="4" r:id="rId4"/>
-    <sheet name="rand" sheetId="3" r:id="rId5"/>
+    <sheet name="Symm 6x6" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -395,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:G26"/>
     </sheetView>
   </sheetViews>
@@ -2403,6 +2404,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -2415,951 +2428,951 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>0.37968907445327904</v>
+        <v>5.6123767490945031</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:I16" ca="1" si="0">RAND()*10-3</f>
-        <v>-1.507035867369408</v>
+        <v>3.040245755206211</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9628882012436577</v>
+        <v>-7.4350933984224987E-2</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3074243568075179</v>
+        <v>3.4060683445347975</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1092495827520246</v>
+        <v>-0.66342678312056069</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4606417560407099</v>
+        <v>1.1607935980373512</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9025260829859452</v>
+        <v>1.0244852582359325</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4610582949272377</v>
+        <v>1.9770572650775682</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8144795488257213</v>
+        <v>3.8664353449929596</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:I25" ca="1" si="1">RAND()*10-3</f>
-        <v>5.561653492571935</v>
+        <v>-2.2362711053106814</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1953915641790207</v>
+        <v>-2.9923285053602431</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.354567407976988</v>
+        <v>-3.2573154914242508E-2</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.919303889707356</v>
+        <v>3.1106560839884185</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10184015066937935</v>
+        <v>0.82992621876450468</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22199994454477334</v>
+        <v>5.9671439958318793</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4188508287596386</v>
+        <v>2.2971929990301989</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4647613578201879</v>
+        <v>-0.34818882567426535</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2719706610380044</v>
+        <v>-2.025350141251983</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3198483637030769</v>
+        <v>5.0990638026028314</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0420279210755892</v>
+        <v>2.7309250619859764</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6861237110811933</v>
+        <v>-0.81549714366819082</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1538806575749998</v>
+        <v>4.3486896832749435</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4973583063232025</v>
+        <v>1.025893737061752</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8523654916239991</v>
+        <v>2.2577124455414488</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33402712283790503</v>
+        <v>4.4484086697875913</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1357419674005707</v>
+        <v>-2.1299209230011025</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4414106774456883</v>
+        <v>5.0573255493799838</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8918890436604214</v>
+        <v>0.2646301690699131</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6924447636162743</v>
+        <v>-2.4421394882316312</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4609108751333459</v>
+        <v>3.4811228418252798</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8997977890578746</v>
+        <v>0.63907614108264976</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4430299771598865</v>
+        <v>-0.241744223419043</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5116936975626101</v>
+        <v>-1.8753965315465355</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5566244429012457</v>
+        <v>-2.4095815114249559</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95578676813642893</v>
+        <v>5.88282408672843</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.567671567943389</v>
+        <v>9.7861514297162167E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9362412899397148</v>
+        <v>-1.0138627453207001</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5839283807699029</v>
+        <v>3.3546515112820847</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7952882734091737</v>
+        <v>-2.0826270048952007</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8399179415454636</v>
+        <v>2.9179847827652701</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5448831802873091</v>
+        <v>5.7627379732786022</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6967838877727432</v>
+        <v>-1.8452950702276867</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4728178546710122</v>
+        <v>-1.2839737823593274</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6423593536632515</v>
+        <v>-0.8282687332949763</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6517893638151819</v>
+        <v>0.63441720395170442</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4630212209724647</v>
+        <v>1.4954741547765718</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.805038181198287</v>
+        <v>4.3403773515437587</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.42934884893318825</v>
+        <v>-1.1020481230060604</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6211596669506658</v>
+        <v>1.2821972709947662</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0411720468236725</v>
+        <v>5.694793700554488</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3734196584502252</v>
+        <v>-8.4778678178503597E-2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2716821534587783</v>
+        <v>-2.4199353307231082</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6526035337445926</v>
+        <v>1.5301214086707864</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7164152793382588</v>
+        <v>5.7752564872967245</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9257694179154825</v>
+        <v>6.2659964821844891</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2433771804743372</v>
+        <v>0.74757783190829663</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0177149338184597</v>
+        <v>-0.55196750540309436</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6264765407770412</v>
+        <v>6.8569570486509264</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4219525975402538</v>
+        <v>4.2122981192425097</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0561371389019367</v>
+        <v>3.3365367726390662</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0754143729389236</v>
+        <v>2.6347551518229544</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81380993267972457</v>
+        <v>2.5766666480057561</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0406787192066318</v>
+        <v>6.65049144977902</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3732320073258468</v>
+        <v>-1.4440062046640252</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6487978359664144</v>
+        <v>4.5918634338581601</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28719391927214488</v>
+        <v>2.2064040484528835</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16708344210883919</v>
+        <v>2.9813236044700826</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7440914177961568</v>
+        <v>1.7517757581285123</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7370945287337758</v>
+        <v>1.4934387403415785</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4243037377658356</v>
+        <v>-2.8387876459356951</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49037842284220279</v>
+        <v>0.7068957232563946</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17591737232929461</v>
+        <v>5.7599658119700372</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6503675184217741</v>
+        <v>2.0468269354487303</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9690565486656055</v>
+        <v>1.6456437882041612</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1155238994331267</v>
+        <v>-0.9549483066678075</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4164981236766334</v>
+        <v>-2.1722292694528318</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9884000928634329</v>
+        <v>5.9569957411550174</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4403435760810852</v>
+        <v>-1.0787219372408714</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34427260948042004</v>
+        <v>6.1541460273877888</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67356969210981621</v>
+        <v>5.5437854988176642</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80319936453243024</v>
+        <v>-1.3535996319073913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2115646086394785</v>
+        <v>6.7982021252042006</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1234552225408354</v>
+        <v>2.351845270451693</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.51123352938483</v>
+        <v>2.0458105412554763</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8702634862027576</v>
+        <v>-2.6728218542232112</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1029775545262819</v>
+        <v>-2.2650534862206113</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6235152571428584</v>
+        <v>1.5522313607928524</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97246960641875724</v>
+        <v>2.7419471222674892</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6857890961626367</v>
+        <v>2.0557823563945723</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6026957534737289</v>
+        <v>3.7366614701430141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2355642968216658</v>
+        <v>-1.8945403383206922</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97083814269827773</v>
+        <v>1.7156772079805016</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0298494303455392</v>
+        <v>6.5561751154048569</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8235463480752729</v>
+        <v>3.7773643589808019</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4918193725428535</v>
+        <v>0.60277840731120325</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2313471096728943</v>
+        <v>-2.5287557095143836</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7747428091051349</v>
+        <v>-1.7435995541039502</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81974060761799628</v>
+        <v>3.1319341245351175</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8072069217204563</v>
+        <v>-2.5164830294221945</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6064868470177798</v>
+        <v>3.5602976499802157</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8328046127479718</v>
+        <v>6.4738328277346877</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7127006705357903</v>
+        <v>-2.5577531552887827</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.174314299914017</v>
+        <v>4.0043726929606933</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.689063896062347</v>
+        <v>5.5005814626167098</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37263066438621051</v>
+        <v>3.9488165155903792</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34841800177775006</v>
+        <v>6.3319033685698329</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4647594202220811</v>
+        <v>6.0740023327899184</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7439519345169394</v>
+        <v>1.4485528013391669</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0342027804315874</v>
+        <v>-1.2546116102477918</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2580808524998988</v>
+        <v>0.57442552981265926</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69082362105842332</v>
+        <v>4.5416990018116952</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3302588558337494</v>
+        <v>-0.54946393541355487</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4171694532358794</v>
+        <v>1.9138160976766336</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1224561138959359</v>
+        <v>1.7656619533905706</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7088037208947</v>
+        <v>6.8347267767036985</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7595098745118003</v>
+        <v>0.24241474254632589</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8126867688918598</v>
+        <v>0.60489069142925445</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8699322925551849</v>
+        <v>-2.7883979262681087</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5328513209950219</v>
+        <v>6.2709189631414599</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.62501641323253709</v>
+        <v>4.2439030841691689</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1596753078117583</v>
+        <v>-1.0620786113519349</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.779086945115423</v>
+        <v>0.93859039071613237</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1373473295174357</v>
+        <v>7.6191566650098963E-3</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5936795616194521</v>
+        <v>-2.8619524253914301</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2299636123896249</v>
+        <v>2.6093299043610854</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0023492464595625</v>
+        <v>4.6790185260781199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3270722320557722</v>
+        <v>-1.2019215856139305</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.567446630961709</v>
+        <v>-0.60224349043098346</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65779486209977112</v>
+        <v>-1.6996090724006181</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.710926506465249</v>
+        <v>4.5162958325859464</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3094946031718395</v>
+        <v>-1.4138374298461116</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40351248355130842</v>
+        <v>6.4491318629687608</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0336213451082621</v>
+        <v>1.9611938321403475</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8413632888873845</v>
+        <v>5.7668947963116324</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6203576151199064</v>
+        <v>6.0290037659029316</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6276235885660757</v>
+        <v>-2.6366336552818312</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4203283735684895</v>
+        <v>4.2633821160039265</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4804766309528423</v>
+        <v>5.9644088692079436</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5619766381986544</v>
+        <v>5.9821309818630723</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3023825015926989</v>
+        <v>4.7121215497795195</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.91474886173316516</v>
+        <v>5.0372224954735021</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9265942480737053</v>
+        <v>2.2416173086070605</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8506655623973831</v>
+        <v>-2.5534314085711793</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3719223699905065</v>
+        <v>-1.811752534681917</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.57523919849378302</v>
+        <v>-1.7662249859189278</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39252671965305064</v>
+        <v>2.0756323660953306</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2032429417591235</v>
+        <v>5.1608320298063433</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9029285988516742</v>
+        <v>2.6592267717895641</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74835831032480193</v>
+        <v>0.21580658411652731</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1555163749910768</v>
+        <v>5.1184245566284741</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9897378059615658</v>
+        <v>3.1482629935717181</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0920090255354431</v>
+        <v>-1.1168537317609379</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91195525800025257</v>
+        <v>5.1890896007892273</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4353992111691163</v>
+        <v>6.2315496702172357</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5660517092165751</v>
+        <v>-2.315487482620787</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.82389985539929533</v>
+        <v>6.7251058363004095</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3139403705950707</v>
+        <v>-1.0601473684311986</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5912405275175132E-2</v>
+        <v>5.4919742317913958</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7252678457545283</v>
+        <v>3.2169566248348147</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5698591358417771</v>
+        <v>5.5070648374361273</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3868579924253195</v>
+        <v>5.9994300782314305</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0577898350911319E-2</v>
+        <v>3.6229764928326187</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6025700540611698</v>
+        <v>1.8152908290851979</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.63929601215109866</v>
+        <v>6.8862243578286488</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4087435184851227</v>
+        <v>6.7724695842017795</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1415325358183921</v>
+        <v>1.6525700011905471</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1986823793985781</v>
+        <v>0.74016431084091217</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6712135393903829</v>
+        <v>3.2087715075786445</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6076028198202559</v>
+        <v>-1.0034857810314435E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6795952709563888</v>
+        <v>2.9269537785241937</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1907921536688928</v>
+        <v>-0.69213360754844722</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.132057856660964</v>
+        <v>5.7304926263306797</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14498805495004419</v>
+        <v>6.4846102025152277</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41150386979968001</v>
+        <v>-2.5038997104409995</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6573605272125711E-2</v>
+        <v>5.3072503344197397</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1342542635729362</v>
+        <v>-0.22698921855790211</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6951637477753643</v>
+        <v>4.1040461711841285</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7505009726531009</v>
+        <v>2.193219003421957</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6076575536938238</v>
+        <v>-0.10968749801435651</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2201002361836406</v>
+        <v>4.9925903591052725</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9422514416714387</v>
+        <v>1.2878981312400599</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0701393055325372</v>
+        <v>3.1861446707577139</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53595825022296228</v>
+        <v>2.3002731737131237</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4618525003683711</v>
+        <v>-0.11996992556384267</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3364777878994669</v>
+        <v>-1.9049713545611719</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7836427748554389</v>
+        <v>-1.5223750624529615</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2435401741406533</v>
+        <v>0.64306241512139195</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9061856757696098</v>
+        <v>-0.89048363972046563</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.528310382320031</v>
+        <v>-0.73508537518218375</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4368624885983508</v>
+        <v>1.427057238523493</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21035351634167743</v>
+        <v>3.039867861983172</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0348220052812991</v>
+        <v>-2.1741347399018967</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5468879010421519</v>
+        <v>4.4362190276685904</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2455029332938512</v>
+        <v>4.3133766018995647</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77511994353075675</v>
+        <v>-2.4656879401458349</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2918585816653767</v>
+        <v>0.28068269237618537</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8019894668670027</v>
+        <v>5.4336257716231238</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8697967395251518</v>
+        <v>-1.338812062136095</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4963741913752102</v>
+        <v>3.4624794884211898</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55045394012937798</v>
+        <v>-0.43805040308288534</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8434552035150293</v>
+        <v>4.8098359254756318</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8973161726595471</v>
+        <v>5.3167273506263424</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8619452203990381</v>
+        <v>6.8125672593141218</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1081713497223473</v>
+        <v>5.1948548713626135</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8814243459357662</v>
+        <v>0.33633020804653491</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0765889330756613</v>
+        <v>0.48518730398043042</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3687147764031264</v>
+        <v>5.6389852842131205</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7337903705021924</v>
+        <v>-1.0258060159744382</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26240170858485534</v>
+        <v>-0.19340334058036124</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0782436665701738</v>
+        <v>-2.5105377867006458</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2544635412274192</v>
+        <v>5.4610937175009084</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8696679661175075</v>
+        <v>0.51173538740811608</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88241871203101407</v>
+        <v>6.719414466086894</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9562769144656462</v>
+        <v>4.468512115609121</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.32967768162158029</v>
+        <v>0.77575981263743721</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7897331835900494</v>
+        <v>3.5090449766001885</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9776020682442725</v>
+        <v>5.8356922713851915</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98797618192179382</v>
+        <v>-2.8447002967936803</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99014581663980294</v>
+        <v>3.8976041836901292</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9403735425599766</v>
+        <v>6.659588290227676</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7809379270687007</v>
+        <v>1.0603431053574219</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2012577385366932</v>
+        <v>3.6878570059065909</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9264209643029293</v>
+        <v>-0.91382161707357845</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3435327798448693</v>
+        <v>3.6753541615512111</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.216032585629609</v>
+        <v>-0.54066673032380175</v>
       </c>
     </row>
   </sheetData>
